--- a/00.环境配置.xlsx
+++ b/00.环境配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\hrbzls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6BF88D-AE6C-438E-AB4C-5F4522CC833F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397D7411-D488-4A5C-9BE8-39D59D598989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0EBF8692-7D66-4AA6-8AD2-F65D9BB7CBB5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>admin</t>
   </si>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>旧版供水营收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>外包供水营收</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,6 +235,18 @@
   </si>
   <si>
     <t>49.233.62.251/orcl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供水营收若依</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.10.72/YSDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://10.10.10.73:8080/ruoyi-admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,376 +660,389 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284F23EF-2945-484A-81FF-7490FB93D254}">
-  <dimension ref="A2:C38"/>
+  <dimension ref="A2:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C38"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
     <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="38.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>21</v>
-      </c>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
-      <c r="B9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
-      <c r="B10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C17" s="5">
         <v>123456</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="6" t="s">
+      <c r="C18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="6" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
-      <c r="B24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
-      <c r="B25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="B28" s="1" t="s">
-        <v>13</v>
+      <c r="B28" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
-      <c r="B30" s="1" t="s">
-        <v>26</v>
+      <c r="B30" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="A21:A30"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="D12:D20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C28" r:id="rId1" xr:uid="{53FDD83E-CB2E-4EDA-9F0F-FED7996DE26F}"/>
-    <hyperlink ref="C8" r:id="rId2" xr:uid="{7B40372D-06B7-4002-87BB-7D06CDDE56CB}"/>
-    <hyperlink ref="C11" r:id="rId3" xr:uid="{C447D118-74F4-43CC-ACD7-79ADB55ED454}"/>
+    <hyperlink ref="F23" r:id="rId1" xr:uid="{53FDD83E-CB2E-4EDA-9F0F-FED7996DE26F}"/>
+    <hyperlink ref="C12" r:id="rId2" xr:uid="{7B40372D-06B7-4002-87BB-7D06CDDE56CB}"/>
+    <hyperlink ref="C15" r:id="rId3" xr:uid="{C447D118-74F4-43CC-ACD7-79ADB55ED454}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/00.环境配置.xlsx
+++ b/00.环境配置.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\hrbzls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397D7411-D488-4A5C-9BE8-39D59D598989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098F0750-0D81-4B27-BDEC-873DEFA54593}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0EBF8692-7D66-4AA6-8AD2-F65D9BB7CBB5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <t>admin</t>
   </si>
@@ -247,6 +247,38 @@
   </si>
   <si>
     <t>http://10.10.10.73:8080/ruoyi-admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>221.212.191.142:32771/orcl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库外网账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库外网密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>196 495 535</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向日葵账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向日葵密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>828 498 381</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fczoyA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -315,13 +347,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -344,6 +433,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -660,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284F23EF-2945-484A-81FF-7490FB93D254}">
-  <dimension ref="A2:F30"/>
+  <dimension ref="A2:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -677,8 +781,8 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -688,15 +792,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
@@ -704,8 +808,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -713,8 +817,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -722,8 +826,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -731,8 +835,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
@@ -740,8 +844,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -749,8 +853,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
@@ -758,8 +862,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
@@ -767,282 +871,345 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="5">
-        <v>123456</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="B18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>53</v>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
-      <c r="B19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>5</v>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
-      <c r="B20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>5</v>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="C22" s="5">
+        <v>123456</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>28</v>
+      <c r="B23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="6" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>45</v>
+        <v>5</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="3" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="3" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="3" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="5">
+        <v>111111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A21:A30"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="D12:D20"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="D17:D25"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="A2:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F23" r:id="rId1" xr:uid="{53FDD83E-CB2E-4EDA-9F0F-FED7996DE26F}"/>
-    <hyperlink ref="C12" r:id="rId2" xr:uid="{7B40372D-06B7-4002-87BB-7D06CDDE56CB}"/>
-    <hyperlink ref="C15" r:id="rId3" xr:uid="{C447D118-74F4-43CC-ACD7-79ADB55ED454}"/>
+    <hyperlink ref="F28" r:id="rId1" xr:uid="{53FDD83E-CB2E-4EDA-9F0F-FED7996DE26F}"/>
+    <hyperlink ref="C17" r:id="rId2" xr:uid="{7B40372D-06B7-4002-87BB-7D06CDDE56CB}"/>
+    <hyperlink ref="C20" r:id="rId3" xr:uid="{C447D118-74F4-43CC-ACD7-79ADB55ED454}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
